--- a/WindowList2.xlsx
+++ b/WindowList2.xlsx
@@ -3,7 +3,7 @@
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
-    <s:workbookView activeTab="0"/>
+    <s:workbookView activeTab="1"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="WindowData" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t>Name</t>
   </si>
@@ -144,18 +144,6 @@
   </si>
   <si>
     <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>E8</t>
   </si>
   <si>
     <t>Area</t>
@@ -1578,26 +1566,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="4" min="1" style="11" width="8.88671875"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="11" width="11.33203125"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="11" width="18.21875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="8.88671875"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="11" width="12.21875"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="11" width="15.88671875"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="11" width="16.44140625"/>
+    <col customWidth="1" max="4" min="1" style="11" width="8.85546875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="11" width="11.28515625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="11" width="18.28515625"/>
+    <col customWidth="1" max="7" min="7" style="11" width="8.85546875"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="11" width="12.28515625"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="11" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="11" width="16.42578125"/>
     <col bestFit="1" customWidth="1" max="11" min="11" style="11" width="17"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="11" width="22.44140625"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="11" width="15.21875"/>
-    <col customWidth="1" max="20" min="14" style="11" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="21" style="11" width="8.88671875"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="11" width="22.42578125"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="11" width="15.28515625"/>
+    <col customWidth="1" max="23" min="14" style="11" width="8.85546875"/>
+    <col customWidth="1" max="16384" min="24" style="11" width="8.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1977,10 +1965,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>24</v>
@@ -2089,170 +2077,6 @@
         <v>21</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2278,34 +2102,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B1" t="n">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:11"/>
     <row customHeight="1" ht="15" r="3" s="24" spans="1:11">
       <c r="A3" s="26" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="4" s="24" spans="1:11">
@@ -2317,12 +2141,12 @@
       <c r="E4" s="44" t="n"/>
       <c r="F4" s="44" t="n"/>
       <c r="G4" s="44" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H4" s="44" t="n"/>
       <c r="I4" s="44" t="n"/>
       <c r="J4" s="44" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K4" s="44" t="n"/>
     </row>
@@ -2330,21 +2154,21 @@
       <c r="A5" s="27" t="n"/>
       <c r="B5" s="27" t="n"/>
       <c r="D5" s="25" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F5" s="44" t="n"/>
       <c r="G5" s="44" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H5" s="44" t="n"/>
       <c r="I5" s="25" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K5" s="44" t="n"/>
     </row>
@@ -2352,28 +2176,28 @@
       <c r="A6" s="27" t="n"/>
       <c r="B6" s="27" t="n"/>
       <c r="D6" s="25" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2381,67 +2205,67 @@
         <v>1</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="41" t="n"/>
       <c r="B8" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="35" t="s">
+      <c r="I8" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="J8" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>251</v>
-      </c>
       <c r="K8" s="31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2449,133 +2273,133 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>251</v>
-      </c>
       <c r="H9" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="41" t="n"/>
       <c r="B10" s="17" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="41" t="n"/>
       <c r="B11" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="12" s="24" spans="1:11">
       <c r="A12" s="42" t="n"/>
       <c r="B12" s="32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2618,10 +2442,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2631,34 +2455,34 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2672,28 +2496,28 @@
         <v>2.84</v>
       </c>
       <c r="D2" t="n">
-        <v>56.8</v>
+        <v>42.59999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7268471480320684</v>
+        <v>0.7333333333333336</v>
       </c>
       <c r="G2" t="n">
-        <v>716.7190042624196</v>
+        <v>340.2</v>
       </c>
       <c r="H2" t="n">
         <v>0.67</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6947241978265313</v>
+        <v>0.6919999999999998</v>
       </c>
       <c r="J2" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>191.4495476457755</v>
+        <v>124.62418368</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2707,28 +2531,28 @@
         <v>2.87</v>
       </c>
       <c r="D3" t="n">
-        <v>57.40000000000001</v>
+        <v>43.05</v>
       </c>
       <c r="E3" t="n">
         <v>0.64</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7268471480320684</v>
+        <v>0.7333333333333336</v>
       </c>
       <c r="G3" t="n">
-        <v>516.4846358931034</v>
+        <v>270.72</v>
       </c>
       <c r="H3" t="n">
         <v>0.57</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6947241978265313</v>
+        <v>0.6919999999999998</v>
       </c>
       <c r="J3" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>119.2116482958921</v>
+        <v>96.47696620799998</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2742,28 +2566,28 @@
         <v>2.84</v>
       </c>
       <c r="D4" t="n">
-        <v>56.8</v>
+        <v>42.59999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3634235740160342</v>
+        <v>0.3666666666666668</v>
       </c>
       <c r="G4" t="n">
-        <v>930.2770869034698</v>
+        <v>542.6000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0.67</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8473620989132656</v>
+        <v>0.8459999999999999</v>
       </c>
       <c r="J4" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>300.392435657527</v>
+        <v>208.52685792</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2777,28 +2601,28 @@
         <v>2.87</v>
       </c>
       <c r="D5" t="n">
-        <v>57.40000000000001</v>
+        <v>43.05</v>
       </c>
       <c r="E5" t="n">
         <v>0.64</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3634235740160342</v>
+        <v>0.3666666666666668</v>
       </c>
       <c r="G5" t="n">
-        <v>730.0427185341537</v>
+        <v>473.1200000000002</v>
       </c>
       <c r="H5" t="n">
         <v>0.57</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8473620989132656</v>
+        <v>0.8459999999999999</v>
       </c>
       <c r="J5" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1385812632842</v>
+        <v>164.441438784</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2812,28 +2636,28 @@
         <v>2.84</v>
       </c>
       <c r="D6" t="n">
-        <v>56.8</v>
+        <v>42.59999999999999</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2725676805120257</v>
+        <v>0.2750000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>983.6666075637324</v>
+        <v>593.2000000000003</v>
       </c>
       <c r="H6" t="n">
         <v>0.67</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8855215741849491</v>
+        <v>0.8845</v>
       </c>
       <c r="J6" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>331.4501626516875</v>
+        <v>233.1571620800001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2847,7 +2671,7 @@
         <v>2.84</v>
       </c>
       <c r="D7" t="n">
-        <v>56.8</v>
+        <v>42.59999999999999</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -2856,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>190.9450433877734</v>
+        <v>745.0000000000002</v>
       </c>
       <c r="H7" t="n">
         <v>0.67</v>
@@ -2868,7 +2692,7 @@
         <v>0.47</v>
       </c>
       <c r="K7" t="n">
-        <v>64.75779416280986</v>
+        <v>270.8957000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2882,7 +2706,7 @@
         <v>2.87</v>
       </c>
       <c r="D8" t="n">
-        <v>57.40000000000001</v>
+        <v>43.05</v>
       </c>
       <c r="E8" t="n">
         <v>0.64</v>
@@ -2891,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>122.204827768175</v>
+        <v>476.8000000000002</v>
       </c>
       <c r="H8" t="n">
         <v>0.57</v>
@@ -2903,7 +2727,7 @@
         <v>0.47</v>
       </c>
       <c r="K8" t="n">
-        <v>37.41677335909408</v>
+        <v>164.41332</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2917,28 +2741,28 @@
         <v>2.84</v>
       </c>
       <c r="D9" t="n">
-        <v>56.8</v>
+        <v>42.59999999999999</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7268471480320684</v>
+        <v>0.7333333333333336</v>
       </c>
       <c r="G9" t="n">
-        <v>590.0330102267942</v>
+        <v>340.2</v>
       </c>
       <c r="H9" t="n">
         <v>0.67</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6947241978265313</v>
+        <v>0.6919999999999998</v>
       </c>
       <c r="J9" t="n">
         <v>0.31</v>
       </c>
       <c r="K9" t="n">
-        <v>89.7675505590482</v>
+        <v>85.19160167999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2952,28 +2776,28 @@
         <v>2.87</v>
       </c>
       <c r="D10" t="n">
-        <v>57.40000000000001</v>
+        <v>43.05</v>
       </c>
       <c r="E10" t="n">
         <v>0.64</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7268471480320684</v>
+        <v>0.5500000000000003</v>
       </c>
       <c r="G10" t="n">
-        <v>435.4055997103031</v>
+        <v>371.92</v>
       </c>
       <c r="H10" t="n">
         <v>0.57</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6947241978265313</v>
+        <v>0.7689999999999999</v>
       </c>
       <c r="J10" t="n">
         <v>0.31</v>
       </c>
       <c r="K10" t="n">
-        <v>58.12751861806549</v>
+        <v>87.21594501599999</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2987,28 +2811,28 @@
         <v>2.84</v>
       </c>
       <c r="D11" t="n">
-        <v>56.8</v>
+        <v>42.59999999999999</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5451353610240514</v>
+        <v>0.5500000000000003</v>
       </c>
       <c r="G11" t="n">
-        <v>696.8120515473192</v>
+        <v>441.4000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0.67</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7710431483698984</v>
+        <v>0.7689999999999999</v>
       </c>
       <c r="J11" t="n">
         <v>0.31</v>
       </c>
       <c r="K11" t="n">
-        <v>116.2206272263895</v>
+        <v>106.79618182</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3022,168 +2846,28 @@
         <v>2.87</v>
       </c>
       <c r="D12" t="n">
-        <v>57.40000000000001</v>
+        <v>43.05</v>
       </c>
       <c r="E12" t="n">
         <v>0.64</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5451353610240514</v>
+        <v>0.5500000000000003</v>
       </c>
       <c r="G12" t="n">
-        <v>542.1846410308283</v>
+        <v>371.92</v>
       </c>
       <c r="H12" t="n">
         <v>0.57</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7710431483698984</v>
+        <v>0.7689999999999999</v>
       </c>
       <c r="J12" t="n">
         <v>0.31</v>
       </c>
       <c r="K12" t="n">
-        <v>78.54713788763824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="D13" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.5451353610240514</v>
-      </c>
-      <c r="G13" t="n">
-        <v>696.8120515473192</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.7710431483698984</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="K13" t="n">
-        <v>116.2206272263895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="D14" t="n">
-        <v>57.40000000000001</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.5451353610240514</v>
-      </c>
-      <c r="G14" t="n">
-        <v>542.1846410308283</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.7710431483698984</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="K14" t="n">
-        <v>78.54713788763824</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="D15" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5451353610240514</v>
-      </c>
-      <c r="G15" t="n">
-        <v>696.8120515473192</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.7710431483698984</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="K15" t="n">
-        <v>116.2206272263895</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="D16" t="n">
-        <v>57.40000000000001</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.5451353610240514</v>
-      </c>
-      <c r="G16" t="n">
-        <v>542.1846410308283</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.7710431483698984</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="K16" t="n">
-        <v>78.54713788763824</v>
+        <v>87.21594501599999</v>
       </c>
     </row>
   </sheetData>
@@ -3205,88 +2889,88 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="7" min="1" style="14" width="11.5546875"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="14" width="24.44140625"/>
-    <col customWidth="1" max="13" min="9" style="14" width="11.5546875"/>
-    <col customWidth="1" max="16384" min="14" style="14" width="11.5546875"/>
+    <col customWidth="1" max="7" min="1" style="14" width="11.5703125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="14" width="24.42578125"/>
+    <col customWidth="1" max="16" min="9" style="14" width="11.5703125"/>
+    <col customWidth="1" max="16384" min="17" style="14" width="11.5703125"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="15.6" r="1" s="24" spans="1:8">
       <c r="A1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="11" t="s">
+    </row>
+    <row customHeight="1" ht="16.15" r="2" s="24" spans="1:8">
+      <c r="A2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="16.2" r="2" s="24" spans="1:8">
-      <c r="A2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="3" s="24" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="4" s="24" spans="1:8">
@@ -3298,19 +2982,19 @@
         <v>17</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="5" s="24" spans="1:8">
@@ -3319,48 +3003,48 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="8" t="s">
+    </row>
+    <row customHeight="1" ht="31.15" r="6" s="24" spans="1:8">
+      <c r="A6" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="31.2" r="6" s="24" spans="1:8">
-      <c r="A6" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="7" s="24" spans="1:8">
@@ -3369,48 +3053,48 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="8" t="s">
+    </row>
+    <row customHeight="1" ht="31.15" r="8" s="24" spans="1:8">
+      <c r="A8" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="31.2" r="8" s="24" spans="1:8">
-      <c r="A8" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="H8" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="9" s="24" spans="1:8">
@@ -3419,48 +3103,48 @@
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="8" t="s">
+    </row>
+    <row customHeight="1" ht="31.15" r="10" s="24" spans="1:8">
+      <c r="A10" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="31.2" r="10" s="24" spans="1:8">
-      <c r="A10" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="11" s="24" spans="1:8">
@@ -3469,22 +3153,22 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="12" s="24" spans="1:8">
@@ -3493,48 +3177,48 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="13" s="24" spans="1:8">
       <c r="A13" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="14" s="24" spans="1:8">
@@ -3543,22 +3227,22 @@
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="15" s="24" spans="1:8">
@@ -3567,22 +3251,22 @@
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3605,85 +3289,85 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="24" width="24.44140625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="24" width="24.42578125"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="15.6" r="1" s="24" spans="1:8">
       <c r="A1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="11" t="s">
+    </row>
+    <row customHeight="1" ht="16.15" r="2" s="24" spans="1:8">
+      <c r="A2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="16.2" r="2" s="24" spans="1:8">
-      <c r="A2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="3" s="24" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="4" s="24" spans="1:8">
@@ -3695,19 +3379,19 @@
         <v>17</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="5" s="24" spans="1:8">
@@ -3716,48 +3400,48 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="31.2" r="6" s="24" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="31.15" r="6" s="24" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>131</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="7" s="24" spans="1:8">
@@ -3766,48 +3450,48 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="31.2" r="8" s="24" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="31.15" r="8" s="24" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="9" s="24" spans="1:8">
@@ -3816,48 +3500,48 @@
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="31.2" r="10" s="24" spans="1:8">
+    </row>
+    <row customHeight="1" ht="31.15" r="10" s="24" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="11" s="24" spans="1:8">
@@ -3866,22 +3550,22 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="12" s="24" spans="1:8">
@@ -3890,48 +3574,48 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="13" s="24" spans="1:8">
       <c r="A13" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="G13" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="14" s="24" spans="1:8">
@@ -3940,22 +3624,22 @@
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="15" s="24" spans="1:8">
@@ -3964,22 +3648,22 @@
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4002,79 +3686,79 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="8.6640625"/>
-    <col customWidth="1" max="3" min="2" style="1" width="8.88671875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="19.44140625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="28.5546875"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="31.5546875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="1" width="11.77734375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="24.44140625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="8.7109375"/>
+    <col customWidth="1" max="3" min="2" style="1" width="8.85546875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="19.42578125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="28.5703125"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="31.5703125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="1" width="11.7109375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="24.42578125"/>
     <col bestFit="1" customWidth="1" max="9" min="9" style="1" width="10"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="1" width="28.5546875"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="1" width="10.6640625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="1" width="21.77734375"/>
-    <col customWidth="1" max="18" min="13" style="1" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="19" style="1" width="8.88671875"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="1" width="28.5703125"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="1" width="10.7109375"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="1" width="21.7109375"/>
+    <col customWidth="1" max="21" min="13" style="1" width="8.85546875"/>
+    <col customWidth="1" max="16384" min="22" style="1" width="8.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row customHeight="1" ht="16.15" r="2" s="24" spans="1:13">
+      <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="16.2" r="2" s="24" spans="1:13">
-      <c r="D2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I3" s="5" t="n"/>
       <c r="J3" s="5" t="n"/>
@@ -4091,19 +3775,19 @@
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I4" s="5" t="n"/>
       <c r="J4" s="5" t="n"/>
@@ -4117,22 +3801,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I5" s="5" t="n"/>
       <c r="J5" s="5" t="n"/>
@@ -4140,30 +3824,30 @@
       <c r="L5" s="5" t="n"/>
       <c r="M5" s="5" t="n"/>
     </row>
-    <row customHeight="1" ht="46.8" r="6" s="24" spans="1:13">
+    <row customHeight="1" ht="46.9" r="6" s="24" spans="1:13">
       <c r="A6" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I6" s="5" t="n"/>
       <c r="J6" s="5" t="n"/>
@@ -4177,22 +3861,22 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I7" s="5" t="n"/>
       <c r="J7" s="5" t="n"/>
@@ -4200,30 +3884,30 @@
       <c r="L7" s="5" t="n"/>
       <c r="M7" s="5" t="n"/>
     </row>
-    <row customHeight="1" ht="46.8" r="8" s="24" spans="1:13">
+    <row customHeight="1" ht="46.9" r="8" s="24" spans="1:13">
       <c r="A8" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I8" s="5" t="n"/>
       <c r="J8" s="5" t="n"/>
@@ -4237,22 +3921,22 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I9" s="5" t="n"/>
       <c r="J9" s="5" t="n"/>
@@ -4260,30 +3944,30 @@
       <c r="L9" s="5" t="n"/>
       <c r="M9" s="5" t="n"/>
     </row>
-    <row customHeight="1" ht="46.8" r="10" s="24" spans="1:13">
+    <row customHeight="1" ht="46.9" r="10" s="24" spans="1:13">
       <c r="A10" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I10" s="5" t="n"/>
       <c r="J10" s="5" t="n"/>
@@ -4297,22 +3981,22 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I11" s="5" t="n"/>
       <c r="J11" s="5" t="n"/>
@@ -4326,22 +4010,22 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I12" s="5" t="n"/>
       <c r="J12" s="5" t="n"/>
@@ -4349,30 +4033,30 @@
       <c r="L12" s="5" t="n"/>
       <c r="M12" s="5" t="n"/>
     </row>
-    <row customHeight="1" ht="31.2" r="13" s="24" spans="1:13">
+    <row customHeight="1" ht="31.15" r="13" s="24" spans="1:13">
       <c r="A13" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I13" s="5" t="n"/>
       <c r="J13" s="5" t="n"/>
@@ -4386,22 +4070,22 @@
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I14" s="5" t="n"/>
       <c r="J14" s="5" t="n"/>
@@ -4409,28 +4093,28 @@
       <c r="L14" s="5" t="n"/>
       <c r="M14" s="5" t="n"/>
     </row>
-    <row customHeight="1" ht="16.2" r="15" s="24" spans="1:13">
+    <row customHeight="1" ht="16.15" r="15" s="24" spans="1:13">
       <c r="A15" s="6" t="n"/>
       <c r="B15" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I15" s="9" t="n"/>
       <c r="J15" s="9" t="n"/>
@@ -4457,15 +4141,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="8.6640625"/>
-    <col customWidth="1" max="3" min="2" style="1" width="8.88671875"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="8.7109375"/>
+    <col customWidth="1" max="3" min="2" style="1" width="8.85546875"/>
     <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="10"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="28.5546875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="28.5703125"/>
     <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="31"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="1" width="21.77734375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="24.44140625"/>
-    <col customWidth="1" max="14" min="9" style="1" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="15" style="1" width="8.88671875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="1" width="21.7109375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="24.42578125"/>
+    <col customWidth="1" max="17" min="9" style="1" width="8.85546875"/>
+    <col customWidth="1" max="16384" min="18" style="1" width="8.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4473,65 +4157,65 @@
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="11" t="n"/>
       <c r="D1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="16.2" r="2" s="24" spans="1:8">
+    </row>
+    <row customHeight="1" ht="16.15" r="2" s="24" spans="1:8">
       <c r="A2" s="11" t="n"/>
       <c r="B2" s="11" t="n"/>
       <c r="C2" s="11" t="n"/>
       <c r="D2" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="4" s="24" spans="1:8">
@@ -4543,19 +4227,19 @@
         <v>17</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4564,48 +4248,48 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="46.8" r="6" s="24" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="46.9" r="6" s="24" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4614,48 +4298,48 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="46.8" r="8" s="24" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="46.9" r="8" s="24" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4664,48 +4348,48 @@
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="46.8" r="10" s="24" spans="1:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="46.9" r="10" s="24" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4714,22 +4398,22 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4738,48 +4422,48 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="31.2" r="13" s="24" spans="1:8">
+        <v>169</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="31.15" r="13" s="24" spans="1:8">
       <c r="A13" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4788,46 +4472,46 @@
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="16.2" r="15" s="24" spans="1:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.15" r="15" s="24" spans="1:8">
       <c r="A15" s="8" t="n"/>
       <c r="B15" s="8" t="n">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4851,29 +4535,29 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B1" t="n">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="3" s="24" spans="1:11">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="4" s="24" spans="1:11">
@@ -4907,10 +4591,10 @@
     </row>
     <row customHeight="1" ht="15" r="5" s="24" spans="1:11">
       <c r="A5" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C5" s="22" t="n">
         <v>125</v>
@@ -4942,7 +4626,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="B6" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C6" s="21" t="n">
         <v>128</v>
@@ -4974,7 +4658,7 @@
     </row>
     <row customHeight="1" ht="15" r="7" s="24" spans="1:11">
       <c r="B7" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C7" s="21" t="n">
         <v>253</v>
@@ -5006,10 +4690,10 @@
     </row>
     <row customHeight="1" ht="15" r="8" s="24" spans="1:11">
       <c r="A8" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C8" s="21" t="n">
         <v>460</v>
@@ -5041,7 +4725,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="B9" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C9" s="21" t="n">
         <v>177</v>
@@ -5073,7 +4757,7 @@
     </row>
     <row customHeight="1" ht="15" r="10" s="24" spans="1:11">
       <c r="B10" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C10" s="21" t="n">
         <v>637</v>
@@ -5105,10 +4789,10 @@
     </row>
     <row customHeight="1" ht="15" r="11" s="24" spans="1:11">
       <c r="A11" s="15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C11" s="21" t="n">
         <v>460</v>
@@ -5140,7 +4824,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C12" s="21" t="n">
         <v>177</v>
@@ -5172,7 +4856,7 @@
     </row>
     <row customHeight="1" ht="15" r="13" s="24" spans="1:11">
       <c r="B13" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C13" s="21" t="n">
         <v>637</v>
@@ -5207,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C14" s="21" t="n">
         <v>530</v>
@@ -5239,7 +4923,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="B15" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C15" s="21" t="n">
         <v>200</v>
@@ -5271,7 +4955,7 @@
     </row>
     <row customHeight="1" ht="15" r="16" s="24" spans="1:11">
       <c r="B16" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C16" s="21" t="n">
         <v>730</v>
@@ -5306,7 +4990,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C17" s="21" t="n">
         <v>530</v>
@@ -5338,7 +5022,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="B18" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C18" s="21" t="n">
         <v>200</v>
@@ -5370,7 +5054,7 @@
     </row>
     <row customHeight="1" ht="15" r="19" s="24" spans="1:11">
       <c r="B19" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C19" s="21" t="n">
         <v>730</v>
@@ -5402,10 +5086,10 @@
     </row>
     <row customHeight="1" ht="15" r="20" s="24" spans="1:11">
       <c r="A20" s="15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C20" s="21" t="n">
         <v>282</v>
@@ -5437,7 +5121,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="B21" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C21" s="21" t="n">
         <v>204</v>
@@ -5469,7 +5153,7 @@
     </row>
     <row customHeight="1" ht="15" r="22" s="24" spans="1:11">
       <c r="B22" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C22" s="21" t="n">
         <v>485</v>
@@ -5501,10 +5185,10 @@
     </row>
     <row customHeight="1" ht="15" r="23" s="24" spans="1:11">
       <c r="A23" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C23" s="21" t="n">
         <v>282</v>
@@ -5536,7 +5220,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="B24" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C24" s="21" t="n">
         <v>204</v>
@@ -5568,7 +5252,7 @@
     </row>
     <row customHeight="1" ht="15" r="25" s="24" spans="1:11">
       <c r="B25" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C25" s="21" t="n">
         <v>485</v>
@@ -5603,7 +5287,7 @@
         <v>33</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C26" s="21" t="n">
         <v>0</v>
@@ -5635,7 +5319,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="B27" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C27" s="21" t="n">
         <v>166</v>
@@ -5667,7 +5351,7 @@
     </row>
     <row customHeight="1" ht="15" r="28" s="24" spans="1:11">
       <c r="B28" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C28" s="21" t="n">
         <v>166</v>
@@ -5699,10 +5383,10 @@
     </row>
     <row customHeight="1" ht="15" r="29" s="24" spans="1:11">
       <c r="A29" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C29" s="21" t="n">
         <v>845</v>
@@ -5734,7 +5418,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="B30" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C30" s="21" t="n">
         <v>170</v>
@@ -5766,7 +5450,7 @@
     </row>
     <row customHeight="1" ht="15" r="31" s="24" spans="1:11">
       <c r="B31" s="20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C31" s="21" t="n">
         <v>1015</v>
@@ -5817,32 +5501,32 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B1" t="n">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="3" s="24" spans="1:10">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="4" s="24" spans="1:10">
@@ -5877,57 +5561,57 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="G5" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="H5" s="23" t="s">
         <v>196</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>200</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>197</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>201</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>15</v>
@@ -5936,30 +5620,30 @@
         <v>15</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>197</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>201</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>15</v>
@@ -5968,7 +5652,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5982,25 +5666,25 @@
         <v>28</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="9" s="24" spans="1:10">
@@ -6014,89 +5698,89 @@
         <v>28</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>201</v>
-      </c>
       <c r="H10" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>201</v>
-      </c>
       <c r="H11" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6104,31 +5788,31 @@
         <v>33</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>210</v>
-      </c>
       <c r="H12" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6151,64 +5835,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="24" width="11.33203125"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="24" width="18.6640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="24" width="11.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="24" width="18.7109375"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="15" r="1" s="24" spans="1:7">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B1" t="n">
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="2" s="24" spans="1:7">
       <c r="A2" s="18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6216,21 +5900,21 @@
         <v>36</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6238,21 +5922,21 @@
         <v>33</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6260,32 +5944,32 @@
         <v>14</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="11" s="24" spans="1:7">
       <c r="A11" s="20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
